--- a/data/trans_orig/P2C_R1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R1-Edad-trans_orig.xlsx
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10365</v>
+        <v>10209</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008712929198200254</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03371212818329286</v>
+        <v>0.03320516933744341</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7852</v>
+        <v>7915</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00539003387290274</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01925785169179784</v>
+        <v>0.01941299126218887</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -955,19 +955,19 @@
         <v>4877</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1017</v>
+        <v>1213</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11341</v>
+        <v>13244</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006818551336951439</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001421849938941063</v>
+        <v>0.001696687348875266</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01585661889295091</v>
+        <v>0.01851774039896047</v>
       </c>
     </row>
     <row r="8">
@@ -984,7 +984,7 @@
         <v>304784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>297098</v>
+        <v>297254</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>307463</v>
@@ -993,7 +993,7 @@
         <v>0.9912870708017998</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9662878718167054</v>
+        <v>0.9667948306625566</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>405534</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>399880</v>
+        <v>399817</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>407732</v>
@@ -1014,7 +1014,7 @@
         <v>0.9946099661270973</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9807421483082021</v>
+        <v>0.980587008737811</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1026,19 +1026,19 @@
         <v>710318</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>703854</v>
+        <v>701951</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>714178</v>
+        <v>713982</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9931814486630486</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9841433811070491</v>
+        <v>0.9814822596010395</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.998578150061059</v>
+        <v>0.9983033126511247</v>
       </c>
     </row>
     <row r="9">
@@ -1130,19 +1130,19 @@
         <v>4559</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13939</v>
+        <v>13716</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008933314979712064</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003314453218842515</v>
+        <v>0.003299813240274106</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02731305523741841</v>
+        <v>0.02687686004432304</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1151,19 +1151,19 @@
         <v>9385</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4342</v>
+        <v>4303</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17102</v>
+        <v>17420</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01592003548646854</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007366173721041308</v>
+        <v>0.007298727764773252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02901124118968534</v>
+        <v>0.02955129121801553</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1172,19 +1172,19 @@
         <v>13944</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7950</v>
+        <v>7204</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24574</v>
+        <v>23232</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01267812018612954</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007228654211556631</v>
+        <v>0.00655004484188731</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02234359323550052</v>
+        <v>0.02112308756540651</v>
       </c>
     </row>
     <row r="11">
@@ -1201,19 +1201,19 @@
         <v>505770</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>496390</v>
+        <v>496613</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>508638</v>
+        <v>508645</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9910666850202879</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9726869447625831</v>
+        <v>0.9731231399556772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9966855467811575</v>
+        <v>0.9967001867597259</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>556</v>
@@ -1222,19 +1222,19 @@
         <v>580107</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>572390</v>
+        <v>572072</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>585150</v>
+        <v>585189</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9840799645135314</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9709887588103145</v>
+        <v>0.9704487087819844</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9926338262789587</v>
+        <v>0.9927012722352268</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1045</v>
@@ -1243,19 +1243,19 @@
         <v>1085878</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1075248</v>
+        <v>1076590</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1091872</v>
+        <v>1092618</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9873218798138704</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9776564067644996</v>
+        <v>0.9788769124345933</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9927713457884435</v>
+        <v>0.9934499551581125</v>
       </c>
     </row>
     <row r="12">
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4869</v>
+        <v>4460</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003095909819146003</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01678891375378218</v>
+        <v>0.01537562426894629</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9300</v>
+        <v>9514</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01148807679085506</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.039070668954322</v>
+        <v>0.03996816715550919</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1389,19 +1389,19 @@
         <v>3633</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11657</v>
+        <v>10580</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006878848466817664</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001714399528005146</v>
+        <v>0.001706382097008756</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02207497106332577</v>
+        <v>0.02003535707033854</v>
       </c>
     </row>
     <row r="14">
@@ -1418,7 +1418,7 @@
         <v>289140</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>285169</v>
+        <v>285578</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>290038</v>
@@ -1427,7 +1427,7 @@
         <v>0.996904090180854</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9832110862462173</v>
+        <v>0.9846243757310537</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1439,7 +1439,7 @@
         <v>235308</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>228743</v>
+        <v>228529</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>238043</v>
@@ -1448,7 +1448,7 @@
         <v>0.9885119232091449</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9609293310456789</v>
+        <v>0.960031832844492</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1460,19 +1460,19 @@
         <v>524449</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>516425</v>
+        <v>517502</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>527177</v>
+        <v>527181</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9931211515331824</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.977925028936675</v>
+        <v>0.9799646429296609</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9982856004719949</v>
+        <v>0.9982936179029913</v>
       </c>
     </row>
     <row r="15">
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4972</v>
+        <v>6134</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006128650091376178</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02481135293620745</v>
+        <v>0.03061382706345542</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6603</v>
+        <v>7975</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003980972504976189</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02140382390606283</v>
+        <v>0.02585391233147053</v>
       </c>
     </row>
     <row r="17">
@@ -1640,7 +1640,7 @@
         <v>199151</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>195407</v>
+        <v>194245</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>200379</v>
@@ -1649,7 +1649,7 @@
         <v>0.9938713499086238</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9751886470637926</v>
+        <v>0.9693861729365446</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>307253</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>301878</v>
+        <v>300506</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>308481</v>
@@ -1670,7 +1670,7 @@
         <v>0.9960190274950238</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9785961760939375</v>
+        <v>0.9741460876685298</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6604</v>
+        <v>7242</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00717313486817533</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02257260166204423</v>
+        <v>0.02475333302222327</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6295</v>
+        <v>7055</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00307805745905238</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01840345479775394</v>
+        <v>0.02062646366009572</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1807,19 +1807,19 @@
         <v>3152</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8368</v>
+        <v>8450</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004966043582600453</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001631699897816412</v>
+        <v>0.001639887156440253</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01318655406496064</v>
+        <v>0.01331517060741241</v>
       </c>
     </row>
     <row r="20">
@@ -1836,7 +1836,7 @@
         <v>290484</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>285979</v>
+        <v>285341</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>292583</v>
@@ -1845,7 +1845,7 @@
         <v>0.9928268651318247</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9774273983379542</v>
+        <v>0.9752466669777768</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>340982</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>335740</v>
+        <v>334980</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>342035</v>
@@ -1866,7 +1866,7 @@
         <v>0.9969219425409476</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.981596545202246</v>
+        <v>0.9793735363399043</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1878,19 +1878,19 @@
         <v>631466</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>626250</v>
+        <v>626168</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>633582</v>
+        <v>633577</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9950339564173996</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9868134459350396</v>
+        <v>0.9866848293925876</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9983683001021836</v>
+        <v>0.9983601128435597</v>
       </c>
     </row>
     <row r="21">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4177</v>
+        <v>4232</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003913578995873821</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01990073180760214</v>
+        <v>0.02016173609432232</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5621</v>
+        <v>5692</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00337551997794745</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01683523701882608</v>
+        <v>0.01704698399505321</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6939</v>
+        <v>6273</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003583190654175691</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01276048287358797</v>
+        <v>0.0115354442888845</v>
       </c>
     </row>
     <row r="23">
@@ -2053,7 +2053,7 @@
         <v>209062</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>205706</v>
+        <v>205651</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>209883</v>
@@ -2062,7 +2062,7 @@
         <v>0.9960864210041261</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9800992681923978</v>
+        <v>0.9798382639056771</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>332781</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>328287</v>
+        <v>328216</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>333908</v>
@@ -2083,7 +2083,7 @@
         <v>0.9966244800220525</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9831647629811738</v>
+        <v>0.9829530160049469</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -2095,7 +2095,7 @@
         <v>541842</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>536852</v>
+        <v>537518</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>543791</v>
@@ -2104,7 +2104,7 @@
         <v>0.9964168093458243</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9872395171264123</v>
+        <v>0.9884645557111172</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2199,19 +2199,19 @@
         <v>11056</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5169</v>
+        <v>5506</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20045</v>
+        <v>20943</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005787746679611067</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002705986570047548</v>
+        <v>0.002882295472978949</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01049363282593224</v>
+        <v>0.01096341272816494</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -2220,19 +2220,19 @@
         <v>17725</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9919</v>
+        <v>10239</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28905</v>
+        <v>29364</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007701984857692248</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004310028726951489</v>
+        <v>0.004449152878521468</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01256009788601419</v>
+        <v>0.01275948252097032</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -2241,19 +2241,19 @@
         <v>28781</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19192</v>
+        <v>19405</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42459</v>
+        <v>42513</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006833754870650357</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004556869694593435</v>
+        <v>0.004607525325048698</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01008152575337148</v>
+        <v>0.01009423674736567</v>
       </c>
     </row>
     <row r="26">
@@ -2270,19 +2270,19 @@
         <v>1899170</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1890181</v>
+        <v>1889283</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1905057</v>
+        <v>1904720</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.994212253320389</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9895063671740678</v>
+        <v>0.9890365872718346</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9972940134299524</v>
+        <v>0.9971177045270209</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2220</v>
@@ -2291,19 +2291,19 @@
         <v>2283637</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2272457</v>
+        <v>2271998</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2291443</v>
+        <v>2291123</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9922980151423078</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9874399021139859</v>
+        <v>0.9872405174790297</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9956899712730487</v>
+        <v>0.9955508471214786</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4095</v>
@@ -2312,19 +2312,19 @@
         <v>4182807</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4169129</v>
+        <v>4169075</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4192396</v>
+        <v>4192183</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9931662451293496</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9899184742466285</v>
+        <v>0.9899057632526346</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9954431303054065</v>
+        <v>0.9953924746749514</v>
       </c>
     </row>
     <row r="27">
@@ -2831,16 +2831,16 @@
         <v>933</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7694</v>
+        <v>7649</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008906096817178924</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002911159405829901</v>
+        <v>0.002909491901182744</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02400514540142788</v>
+        <v>0.02386316699644094</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10753</v>
+        <v>12510</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008469290524521837</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02531384335467393</v>
+        <v>0.02944899717551235</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -2870,19 +2870,19 @@
         <v>6452</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2720</v>
+        <v>1925</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16007</v>
+        <v>14876</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008657141089556539</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003649860938668554</v>
+        <v>0.002582827055082595</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02147612758570705</v>
+        <v>0.01995885667250178</v>
       </c>
     </row>
     <row r="8">
@@ -2899,7 +2899,7 @@
         <v>317677</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>312838</v>
+        <v>312883</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>319599</v>
@@ -2908,10 +2908,10 @@
         <v>0.9910939031828211</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.975994854598572</v>
+        <v>0.976136833003559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.99708884059417</v>
+        <v>0.9970905080988173</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>395</v>
@@ -2920,7 +2920,7 @@
         <v>421198</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>414043</v>
+        <v>412286</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>424796</v>
@@ -2929,7 +2929,7 @@
         <v>0.9915307094754782</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9746861566453261</v>
+        <v>0.9705510028244876</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2941,19 +2941,19 @@
         <v>738876</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>729321</v>
+        <v>730452</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>742608</v>
+        <v>743403</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9913428589104435</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9785238724142918</v>
+        <v>0.9800411433274981</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9963501390613315</v>
+        <v>0.9974171729449174</v>
       </c>
     </row>
     <row r="9">
@@ -3045,19 +3045,19 @@
         <v>7693</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2896</v>
+        <v>2839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18994</v>
+        <v>17213</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01350617152883306</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005085112311811189</v>
+        <v>0.004984655994046005</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03334909816098579</v>
+        <v>0.03022166247632032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3066,19 +3066,19 @@
         <v>7672</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3683</v>
+        <v>2950</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16112</v>
+        <v>17092</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01258128246814945</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006039632578718245</v>
+        <v>0.004837785591330754</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02642253945889323</v>
+        <v>0.02802998966889124</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3087,19 +3087,19 @@
         <v>15364</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8508</v>
+        <v>8542</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26782</v>
+        <v>26895</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01302795945920045</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007214733999236416</v>
+        <v>0.007243424624763471</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02270948567342581</v>
+        <v>0.02280520089828592</v>
       </c>
     </row>
     <row r="11">
@@ -3116,19 +3116,19 @@
         <v>561862</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>550561</v>
+        <v>552342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>566659</v>
+        <v>566716</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.986493828471167</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9666509018390141</v>
+        <v>0.9697783375236797</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9949148876881888</v>
+        <v>0.9950153440059539</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>567</v>
@@ -3137,19 +3137,19 @@
         <v>602093</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>593653</v>
+        <v>592673</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>606082</v>
+        <v>606815</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9874187175318505</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9735774605411069</v>
+        <v>0.9719700103311094</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9939603674212819</v>
+        <v>0.9951622144086693</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1108</v>
@@ -3158,19 +3158,19 @@
         <v>1163957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1152539</v>
+        <v>1152426</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1170813</v>
+        <v>1170779</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9869720405407996</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9772905143265739</v>
+        <v>0.9771947991017141</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9927852660007632</v>
+        <v>0.9927565753752365</v>
       </c>
     </row>
     <row r="12">
@@ -3262,19 +3262,19 @@
         <v>3095</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>965</v>
+        <v>335</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9702</v>
+        <v>8620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008248924706038288</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002572525016774659</v>
+        <v>0.0008936291892191881</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02586105337382551</v>
+        <v>0.02297672977496327</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3283,19 +3283,19 @@
         <v>4286</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10017</v>
+        <v>10767</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0139277328404034</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003503103019134389</v>
+        <v>0.00351400942107733</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0325537530126128</v>
+        <v>0.03499047046211563</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -3304,19 +3304,19 @@
         <v>7381</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3126</v>
+        <v>3138</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13959</v>
+        <v>14693</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01080784269096381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004577032078545712</v>
+        <v>0.004595902193991164</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02044108814210648</v>
+        <v>0.02151650036929862</v>
       </c>
     </row>
     <row r="14">
@@ -3333,19 +3333,19 @@
         <v>372079</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>365472</v>
+        <v>366554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>374209</v>
+        <v>374839</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9917510752939617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9741389466261732</v>
+        <v>0.9770232702250367</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9974274749832254</v>
+        <v>0.9991063708107728</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>265</v>
@@ -3354,19 +3354,19 @@
         <v>303430</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>297699</v>
+        <v>296949</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>306638</v>
+        <v>306635</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9860722671595966</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9674462469873849</v>
+        <v>0.9650095295378841</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9964968969808656</v>
+        <v>0.9964859905789226</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>597</v>
@@ -3375,19 +3375,19 @@
         <v>675509</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>668931</v>
+        <v>668197</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>679764</v>
+        <v>679752</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9891921573090362</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9795589118578936</v>
+        <v>0.9784834996307024</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9954229679214543</v>
+        <v>0.9954040978060088</v>
       </c>
     </row>
     <row r="15">
@@ -3492,19 +3492,19 @@
         <v>6575</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2931</v>
+        <v>2077</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13736</v>
+        <v>12967</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02959997685652532</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.013196592378574</v>
+        <v>0.009351098929330223</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06184075229056047</v>
+        <v>0.05837827212161096</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -3513,19 +3513,19 @@
         <v>6575</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2978</v>
+        <v>2525</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14422</v>
+        <v>13886</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01806818720648988</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008185000937379892</v>
+        <v>0.006939597514614259</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0396347602659017</v>
+        <v>0.03816077819362185</v>
       </c>
     </row>
     <row r="17">
@@ -3555,19 +3555,19 @@
         <v>215543</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208382</v>
+        <v>209151</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>219187</v>
+        <v>220041</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9704000231434747</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9381592477094395</v>
+        <v>0.941621727878389</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9868034076214259</v>
+        <v>0.9906489010706697</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>328</v>
@@ -3576,19 +3576,19 @@
         <v>357307</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>349460</v>
+        <v>349996</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>360904</v>
+        <v>361357</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9819318127935102</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9603652397340992</v>
+        <v>0.9618392218063782</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9918149990626202</v>
+        <v>0.9930604024853857</v>
       </c>
     </row>
     <row r="18">
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7406</v>
+        <v>6400</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006708909561696249</v>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02420431913888792</v>
+        <v>0.02091691279804461</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4927</v>
+        <v>4894</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002803235598898987</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01408092081851314</v>
+        <v>0.01398747720655538</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -3722,19 +3722,19 @@
         <v>3034</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8917</v>
+        <v>8883</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004625296637677863</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001485419911495009</v>
+        <v>0.001477854588305635</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01359553196091064</v>
+        <v>0.01354399905273498</v>
       </c>
     </row>
     <row r="20">
@@ -3751,7 +3751,7 @@
         <v>303934</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>298581</v>
+        <v>299587</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>305987</v>
@@ -3760,7 +3760,7 @@
         <v>0.9932910904383038</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9757956808611098</v>
+        <v>0.9790830872019557</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3772,7 +3772,7 @@
         <v>348929</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>344983</v>
+        <v>345016</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>349910</v>
@@ -3781,7 +3781,7 @@
         <v>0.9971967644011011</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9859190791814868</v>
+        <v>0.9860125227934445</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -3793,19 +3793,19 @@
         <v>652863</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>646980</v>
+        <v>647014</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>654923</v>
+        <v>654928</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9953747033623221</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9864044680390881</v>
+        <v>0.9864560009472647</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.998514580088505</v>
+        <v>0.9985221454116944</v>
       </c>
     </row>
     <row r="21">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6735</v>
+        <v>5999</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004057974110828269</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02717528051459413</v>
+        <v>0.02420539512089968</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -3918,19 +3918,19 @@
         <v>5509</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2116</v>
+        <v>2090</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12188</v>
+        <v>11252</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0142809736443394</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005485652847039369</v>
+        <v>0.005418725734889557</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03159602210754216</v>
+        <v>0.02917099730451039</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -3939,19 +3939,19 @@
         <v>6514</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2225</v>
+        <v>3056</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12996</v>
+        <v>13136</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0102820190687162</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003512360670275702</v>
+        <v>0.004824072769477001</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02051166170383259</v>
+        <v>0.02073329379143371</v>
       </c>
     </row>
     <row r="23">
@@ -3968,7 +3968,7 @@
         <v>246829</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>241100</v>
+        <v>241836</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>247835</v>
@@ -3977,7 +3977,7 @@
         <v>0.9959420258891717</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9728247194854056</v>
+        <v>0.9757946048791002</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -3989,19 +3989,19 @@
         <v>380226</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>373547</v>
+        <v>374483</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>383619</v>
+        <v>383645</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9857190263556606</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9684039778924578</v>
+        <v>0.9708290026954889</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9945143471529606</v>
+        <v>0.9945812742651103</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>561</v>
@@ -4010,19 +4010,19 @@
         <v>627056</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>620574</v>
+        <v>620434</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>631345</v>
+        <v>630514</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9897179809312838</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9794883382961673</v>
+        <v>0.9792667062085663</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9964876393297243</v>
+        <v>0.9951759272305229</v>
       </c>
     </row>
     <row r="24">
@@ -4114,19 +4114,19 @@
         <v>16701</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9629</v>
+        <v>9436</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28110</v>
+        <v>28510</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007813746960170263</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004505239760208592</v>
+        <v>0.004415000304714328</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01315199217844607</v>
+        <v>0.01333917488657215</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -4135,19 +4135,19 @@
         <v>28619</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19750</v>
+        <v>19241</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42842</v>
+        <v>42159</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01137119555838447</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007847054920639789</v>
+        <v>0.007644978330669619</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0170221942576053</v>
+        <v>0.01675089250980118</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -4156,19 +4156,19 @@
         <v>45320</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31955</v>
+        <v>32400</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61779</v>
+        <v>61200</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009737509994737164</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00686581683101294</v>
+        <v>0.006961567379129131</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01327400847965503</v>
+        <v>0.01314953955671335</v>
       </c>
     </row>
     <row r="26">
@@ -4185,19 +4185,19 @@
         <v>2120625</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2109216</v>
+        <v>2108816</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2127697</v>
+        <v>2127890</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9921862530398298</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9868480078215537</v>
+        <v>0.9866608251134279</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9954947602397914</v>
+        <v>0.9955849996952858</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2318</v>
@@ -4206,19 +4206,19 @@
         <v>2488211</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2473988</v>
+        <v>2474671</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2497080</v>
+        <v>2497589</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9886288044416155</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9829778057423931</v>
+        <v>0.983249107490199</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9921529450793599</v>
+        <v>0.9923550216693304</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4297</v>
@@ -4227,19 +4227,19 @@
         <v>4608836</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4592377</v>
+        <v>4592956</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4622201</v>
+        <v>4621756</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9902624900052628</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9867259915203449</v>
+        <v>0.9868504604432862</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9931341831689871</v>
+        <v>0.9930384326208708</v>
       </c>
     </row>
     <row r="27">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5613</v>
+        <v>7123</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003899102723796711</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0215324149299206</v>
+        <v>0.02732241819655823</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5076</v>
+        <v>5087</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001641900168007906</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008198360085916526</v>
+        <v>0.008217206622855</v>
       </c>
     </row>
     <row r="8">
@@ -4806,7 +4806,7 @@
         <v>259681</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>255084</v>
+        <v>253574</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>260697</v>
@@ -4815,7 +4815,7 @@
         <v>0.9961008972762033</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9784675850700784</v>
+        <v>0.9726775818034407</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>618074</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>614014</v>
+        <v>614003</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>619090</v>
@@ -4849,7 +4849,7 @@
         <v>0.9983580998319921</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9918016399140835</v>
+        <v>0.9917827933771449</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -4944,19 +4944,19 @@
         <v>4492</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1057</v>
+        <v>1615</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11510</v>
+        <v>11150</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009673260544838613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002276815961843218</v>
+        <v>0.003477675546202821</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02478578150277703</v>
+        <v>0.02401052323682915</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -4965,19 +4965,19 @@
         <v>9236</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3892</v>
+        <v>4691</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16746</v>
+        <v>17310</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01706489808071864</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007190482276238392</v>
+        <v>0.008667391166262656</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03094273685432351</v>
+        <v>0.0319834807322295</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -4986,19 +4986,19 @@
         <v>13728</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7240</v>
+        <v>7667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22655</v>
+        <v>23086</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01365146247716025</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007199574706433175</v>
+        <v>0.007624495001644629</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02252961735364036</v>
+        <v>0.02295817977163531</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         <v>459884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>452866</v>
+        <v>453226</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>463319</v>
+        <v>462761</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9903267394551614</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.975214218497223</v>
+        <v>0.9759894767631709</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9977231840381567</v>
+        <v>0.9965223244537972</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>536</v>
@@ -5036,19 +5036,19 @@
         <v>531973</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>524463</v>
+        <v>523899</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>537317</v>
+        <v>536518</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9829351019192814</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9690572631456766</v>
+        <v>0.9680165192677704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9928095177237617</v>
+        <v>0.9913326088337373</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>979</v>
@@ -5057,19 +5057,19 @@
         <v>991856</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>982929</v>
+        <v>982498</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>998344</v>
+        <v>997917</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9863485375228398</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9774703826463597</v>
+        <v>0.9770418202283646</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9928004252935667</v>
+        <v>0.9923755049983554</v>
       </c>
     </row>
     <row r="12">
@@ -5161,19 +5161,19 @@
         <v>7395</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3206</v>
+        <v>3171</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14566</v>
+        <v>13916</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02175349908586063</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00942911851196716</v>
+        <v>0.009328911928686645</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04284672494009034</v>
+        <v>0.04093518302436799</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -5182,19 +5182,19 @@
         <v>4269</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10931</v>
+        <v>11616</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01351553972163072</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003420865780737084</v>
+        <v>0.003428275834664709</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03460804769768454</v>
+        <v>0.0367759200483071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -5203,19 +5203,19 @@
         <v>11664</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5375</v>
+        <v>6414</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19969</v>
+        <v>21288</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01778589249625998</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008195473306622545</v>
+        <v>0.009780463606462505</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03044960026636572</v>
+        <v>0.03245974863818849</v>
       </c>
     </row>
     <row r="14">
@@ -5232,19 +5232,19 @@
         <v>332563</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>325392</v>
+        <v>326042</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>336752</v>
+        <v>336787</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9782465009141393</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9571532750599099</v>
+        <v>0.9590648169756321</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9905708814880329</v>
+        <v>0.9906710880713133</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>290</v>
@@ -5253,19 +5253,19 @@
         <v>311587</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>304925</v>
+        <v>304240</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>314775</v>
+        <v>314773</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9864844602783692</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9653919523023138</v>
+        <v>0.963224079951693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9965791342192629</v>
+        <v>0.9965717241653352</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>591</v>
@@ -5274,19 +5274,19 @@
         <v>644150</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>635845</v>
+        <v>634526</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>650439</v>
+        <v>649400</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9822141075037401</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9695503997336349</v>
+        <v>0.9675402513618113</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9918045266933775</v>
+        <v>0.9902195363935374</v>
       </c>
     </row>
     <row r="15">
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7357</v>
+        <v>7756</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01668444157407069</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0564882811359534</v>
+        <v>0.05955705728293202</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6429</v>
+        <v>6350</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004733553634574185</v>
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03142640452888783</v>
+        <v>0.03104070343234752</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -5420,19 +5420,19 @@
         <v>3141</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9074</v>
+        <v>9997</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009382130043288809</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002904559023134383</v>
+        <v>0.00288659337963936</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02710088102800375</v>
+        <v>0.0298571007798457</v>
       </c>
     </row>
     <row r="17">
@@ -5449,7 +5449,7 @@
         <v>128061</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122877</v>
+        <v>122478</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>130234</v>
@@ -5458,7 +5458,7 @@
         <v>0.9833155584259293</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9435117188640474</v>
+        <v>0.9404429427170683</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5470,7 +5470,7 @@
         <v>203613</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>198152</v>
+        <v>198231</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>204581</v>
@@ -5479,7 +5479,7 @@
         <v>0.9952664463654258</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9685735954711131</v>
+        <v>0.9689592965676538</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5491,19 +5491,19 @@
         <v>331674</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>325741</v>
+        <v>324818</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>333843</v>
+        <v>333849</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9906178699567112</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9728991189719958</v>
+        <v>0.970142899220154</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9970954409768656</v>
+        <v>0.9971134066203606</v>
       </c>
     </row>
     <row r="18">
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6001</v>
+        <v>5491</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003165693304378528</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01996076711166403</v>
+        <v>0.01826578287643891</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -5616,19 +5616,19 @@
         <v>4174</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9635</v>
+        <v>10415</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01205636229596951</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003092968996227482</v>
+        <v>0.003109475089307301</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02783031439210108</v>
+        <v>0.030084498799616</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -5637,19 +5637,19 @@
         <v>5126</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1984</v>
+        <v>1967</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12017</v>
+        <v>11460</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007924219709252099</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003067312001780881</v>
+        <v>0.003040831719694071</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01857763502988945</v>
+        <v>0.0177177046394597</v>
       </c>
     </row>
     <row r="20">
@@ -5666,7 +5666,7 @@
         <v>299676</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>294627</v>
+        <v>295137</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>300628</v>
@@ -5675,7 +5675,7 @@
         <v>0.9968343066956215</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9800392328883362</v>
+        <v>0.9817342171235607</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5687,19 +5687,19 @@
         <v>342025</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>336564</v>
+        <v>335784</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>345128</v>
+        <v>345123</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9879436377040305</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.972169685607899</v>
+        <v>0.9699155012003839</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9969070310037725</v>
+        <v>0.9968905249106927</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>610</v>
@@ -5708,19 +5708,19 @@
         <v>641701</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>634810</v>
+        <v>635367</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>644843</v>
+        <v>644860</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9920757802907479</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9814223649701104</v>
+        <v>0.9822822953605403</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9969326879982191</v>
+        <v>0.996959168280306</v>
       </c>
     </row>
     <row r="21">
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5562</v>
+        <v>5542</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006454998965914674</v>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02258030325584262</v>
+        <v>0.02250237192643347</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -5833,19 +5833,19 @@
         <v>3892</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11352</v>
+        <v>11819</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009882598770029307</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003219869620754733</v>
+        <v>0.003209545511205585</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02882537739260944</v>
+        <v>0.03001050935732419</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -5854,19 +5854,19 @@
         <v>5482</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1617</v>
+        <v>1594</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11594</v>
+        <v>12520</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008563758696367102</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0025260513464606</v>
+        <v>0.00249029277026753</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01811116835940089</v>
+        <v>0.01955790377841418</v>
       </c>
     </row>
     <row r="23">
@@ -5883,7 +5883,7 @@
         <v>244717</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>240745</v>
+        <v>240765</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>246307</v>
@@ -5892,7 +5892,7 @@
         <v>0.9935450010340853</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9774196967441572</v>
+        <v>0.9774976280735651</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -5904,19 +5904,19 @@
         <v>389941</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>382481</v>
+        <v>382014</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>392565</v>
+        <v>392569</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9901174012299707</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9711746226073918</v>
+        <v>0.9699894906426759</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9967801303792453</v>
+        <v>0.9967904544887944</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>580</v>
@@ -5925,19 +5925,19 @@
         <v>634658</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>628546</v>
+        <v>627620</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>638523</v>
+        <v>638546</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9914362413036329</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9818888316405988</v>
+        <v>0.9804420962215856</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9974739486535394</v>
+        <v>0.9975097072297324</v>
       </c>
     </row>
     <row r="24">
@@ -6029,19 +6029,19 @@
         <v>17618</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10254</v>
+        <v>10913</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27730</v>
+        <v>28423</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009287789166760759</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005405364468657178</v>
+        <v>0.00575321301657449</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01461833447142761</v>
+        <v>0.01498350892035928</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -6050,19 +6050,19 @@
         <v>22539</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14030</v>
+        <v>14055</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34622</v>
+        <v>34325</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009652607351617387</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006008423819901002</v>
+        <v>0.006019305364634413</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01482713500032567</v>
+        <v>0.01470027436950417</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>38</v>
@@ -6071,19 +6071,19 @@
         <v>40157</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29375</v>
+        <v>29162</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55506</v>
+        <v>55380</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009489081278261291</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006941344259526736</v>
+        <v>0.006890829571809961</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0131159812803208</v>
+        <v>0.01308625515934571</v>
       </c>
     </row>
     <row r="26">
@@ -6100,19 +6100,19 @@
         <v>1879310</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1869198</v>
+        <v>1868505</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1886674</v>
+        <v>1886015</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9907122108332392</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9853816655285723</v>
+        <v>0.985016491079641</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9945946355313429</v>
+        <v>0.9942467869834255</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2160</v>
@@ -6121,19 +6121,19 @@
         <v>2312481</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2300398</v>
+        <v>2300695</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2320990</v>
+        <v>2320965</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9903473926483826</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9851728649996739</v>
+        <v>0.9852997256304958</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9939915761800989</v>
+        <v>0.993980694635366</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3985</v>
@@ -6142,19 +6142,19 @@
         <v>4191791</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4176442</v>
+        <v>4176568</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4202573</v>
+        <v>4202786</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9905109187217387</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.986884018719679</v>
+        <v>0.9869137448406542</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9930586557404733</v>
+        <v>0.9931091704281899</v>
       </c>
     </row>
     <row r="27">
@@ -6492,16 +6492,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13123</v>
+        <v>12274</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1370561154419775</v>
+        <v>0.1370561154419776</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4126249450980029</v>
+        <v>0.3859259775924389</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6854</v>
+        <v>8193</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03343521170701792</v>
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1553039055762651</v>
+        <v>0.1856416059763056</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6531,19 +6531,19 @@
         <v>5834</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16612</v>
+        <v>16000</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07683330520966121</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01869308296739702</v>
+        <v>0.01863352446229541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2187695180340353</v>
+        <v>0.2107047159535823</v>
       </c>
     </row>
     <row r="5">
@@ -6560,16 +6560,16 @@
         <v>27444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18680</v>
+        <v>19529</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>31803</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8629438845580225</v>
+        <v>0.8629438845580226</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5873750549019972</v>
+        <v>0.6140740224075611</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6581,7 +6581,7 @@
         <v>42656</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37278</v>
+        <v>35939</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>44132</v>
@@ -6590,7 +6590,7 @@
         <v>0.9665647882929821</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8446960944237312</v>
+        <v>0.8143583940236927</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6602,19 +6602,19 @@
         <v>70101</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59323</v>
+        <v>59935</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>74516</v>
+        <v>74520</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9231666947903389</v>
+        <v>0.9231666947903386</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7812304819659645</v>
+        <v>0.7892952840464178</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9813069170326031</v>
+        <v>0.9813664755377047</v>
       </c>
     </row>
     <row r="6">
@@ -6709,16 +6709,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16764</v>
+        <v>17160</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05785302066048668</v>
+        <v>0.05785302066048667</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2502605622937199</v>
+        <v>0.2561694970236018</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5990</v>
+        <v>7752</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01288565932787587</v>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05368187240731497</v>
+        <v>0.06947050961441292</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18162</v>
+        <v>19532</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02975420428885293</v>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1017096348611692</v>
+        <v>0.1093804977973825</v>
       </c>
     </row>
     <row r="8">
@@ -6777,16 +6777,16 @@
         <v>63110</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>50221</v>
+        <v>49825</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>66985</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9421469793395134</v>
+        <v>0.9421469793395132</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7497394377062787</v>
+        <v>0.7438305029764001</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6798,16 +6798,16 @@
         <v>110143</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>105591</v>
+        <v>103829</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>111581</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9871143406721242</v>
+        <v>0.9871143406721241</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.946318127592685</v>
+        <v>0.9305294903855862</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -6819,16 +6819,16 @@
         <v>173254</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>160405</v>
+        <v>159035</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>178567</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9702457957111471</v>
+        <v>0.970245795711147</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8982903651388301</v>
+        <v>0.8906195022026175</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7371</v>
+        <v>6677</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01426004064599634</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05333577714579466</v>
+        <v>0.04831669313934456</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4861</v>
+        <v>5496</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009967595492849755</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03107088256052733</v>
+        <v>0.03512836071446241</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -6965,19 +6965,19 @@
         <v>3530</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1050</v>
+        <v>1081</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8671</v>
+        <v>8938</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01198082586875672</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00356285884237312</v>
+        <v>0.003667289850572674</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02942886521932645</v>
+        <v>0.0303349572816067</v>
       </c>
     </row>
     <row r="11">
@@ -6994,7 +6994,7 @@
         <v>136229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130829</v>
+        <v>131523</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>138200</v>
@@ -7003,7 +7003,7 @@
         <v>0.9857399593540036</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9466642228542077</v>
+        <v>0.9516833068606553</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>154899</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151598</v>
+        <v>150963</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>156459</v>
@@ -7024,7 +7024,7 @@
         <v>0.9900324045071502</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9689291174394726</v>
+        <v>0.9648716392855377</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -7036,19 +7036,19 @@
         <v>291129</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>285988</v>
+        <v>285721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>293609</v>
+        <v>293578</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9880191741312434</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.970571134780673</v>
+        <v>0.9696650427183933</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9964371411576268</v>
+        <v>0.9963327101494275</v>
       </c>
     </row>
     <row r="12">
@@ -7140,19 +7140,19 @@
         <v>10723</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4956</v>
+        <v>5320</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19085</v>
+        <v>20310</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09068905821021353</v>
+        <v>0.09068905821021354</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04191868470001385</v>
+        <v>0.04499357711611588</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1614087518871354</v>
+        <v>0.1717753988221344</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -7161,19 +7161,19 @@
         <v>9690</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5491</v>
+        <v>5211</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15111</v>
+        <v>14698</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0760355582491076</v>
+        <v>0.07603555824910758</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04308850295861327</v>
+        <v>0.04089135455862222</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1185777205288057</v>
+        <v>0.115340969384512</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -7182,19 +7182,19 @@
         <v>20412</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13278</v>
+        <v>13398</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30828</v>
+        <v>30721</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08308805390604428</v>
+        <v>0.08308805390604429</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05404723683966508</v>
+        <v>0.05453787551628062</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1254862946478956</v>
+        <v>0.125047061328105</v>
       </c>
     </row>
     <row r="14">
@@ -7211,19 +7211,19 @@
         <v>107515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>99153</v>
+        <v>97928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>113282</v>
+        <v>112918</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9093109417897862</v>
+        <v>0.9093109417897863</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8385912481128648</v>
+        <v>0.8282246011778654</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9580813152999861</v>
+        <v>0.955006422883884</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>171</v>
@@ -7232,19 +7232,19 @@
         <v>117744</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112323</v>
+        <v>112736</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>121943</v>
+        <v>122223</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9239644417508924</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8814222794711941</v>
+        <v>0.884659030615488</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9569114970413866</v>
+        <v>0.9591086454413779</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>269</v>
@@ -7253,19 +7253,19 @@
         <v>225260</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>214844</v>
+        <v>214951</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>232394</v>
+        <v>232274</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9169119460939555</v>
+        <v>0.9169119460939557</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.874513705352104</v>
+        <v>0.8749529386718951</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9459527631603349</v>
+        <v>0.9454621244837194</v>
       </c>
     </row>
     <row r="15">
@@ -7357,19 +7357,19 @@
         <v>11906</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6682</v>
+        <v>6815</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18795</v>
+        <v>19710</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1728088293153077</v>
+        <v>0.1728088293153076</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09698788939463528</v>
+        <v>0.0989179344543636</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2727879391678567</v>
+        <v>0.2860750577915157</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -7378,19 +7378,19 @@
         <v>7599</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3849</v>
+        <v>3933</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12227</v>
+        <v>12323</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09738781984355162</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04932839034007901</v>
+        <v>0.05040677720400473</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.156694613788422</v>
+        <v>0.1579221494730002</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -7399,19 +7399,19 @@
         <v>19506</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13348</v>
+        <v>12684</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27566</v>
+        <v>27712</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1327547321400303</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09084556537948928</v>
+        <v>0.08632890466393263</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1876102943930479</v>
+        <v>0.1886091231274988</v>
       </c>
     </row>
     <row r="17">
@@ -7428,19 +7428,19 @@
         <v>56993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50104</v>
+        <v>49189</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62217</v>
+        <v>62084</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8271911706846925</v>
+        <v>0.8271911706846923</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7272120608321435</v>
+        <v>0.7139249422084839</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9030121106053652</v>
+        <v>0.9010820655456361</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>111</v>
@@ -7449,19 +7449,19 @@
         <v>70432</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65804</v>
+        <v>65708</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74182</v>
+        <v>74098</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9026121801564484</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8433053862115779</v>
+        <v>0.8420778505269997</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.950671609659921</v>
+        <v>0.9495932227959951</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>173</v>
@@ -7470,19 +7470,19 @@
         <v>127424</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>119364</v>
+        <v>119218</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133582</v>
+        <v>134246</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8672452678599698</v>
+        <v>0.8672452678599697</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.812389705606952</v>
+        <v>0.8113908768725013</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9091544346205109</v>
+        <v>0.9136710953360674</v>
       </c>
     </row>
     <row r="18">
@@ -7574,19 +7574,19 @@
         <v>10432</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6334</v>
+        <v>6563</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15492</v>
+        <v>15678</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2255063113193105</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1369113506618042</v>
+        <v>0.1418581082837811</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3348722441483023</v>
+        <v>0.3389039308527685</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -7595,19 +7595,19 @@
         <v>17377</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12353</v>
+        <v>12313</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22940</v>
+        <v>22953</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2394829098914056</v>
+        <v>0.2394829098914057</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1702493096629172</v>
+        <v>0.1696977100225378</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.316150920408898</v>
+        <v>0.316328276861388</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -7616,19 +7616,19 @@
         <v>27809</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21238</v>
+        <v>21661</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34820</v>
+        <v>35852</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2340412767478195</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1787353067771277</v>
+        <v>0.1822992899463418</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2930370063024759</v>
+        <v>0.301729892185033</v>
       </c>
     </row>
     <row r="20">
@@ -7645,19 +7645,19 @@
         <v>35830</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30770</v>
+        <v>30584</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39928</v>
+        <v>39699</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7744936886806894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6651277558516979</v>
+        <v>0.6610960691472317</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8630886493381957</v>
+        <v>0.858141891716219</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>102</v>
@@ -7666,19 +7666,19 @@
         <v>55183</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49620</v>
+        <v>49607</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60207</v>
+        <v>60247</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7605170901085944</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6838490795911016</v>
+        <v>0.6836717231386114</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8297506903370827</v>
+        <v>0.8303022899774614</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>152</v>
@@ -7687,19 +7687,19 @@
         <v>91014</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84003</v>
+        <v>82971</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>97585</v>
+        <v>97162</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7659587232521806</v>
+        <v>0.7659587232521803</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7069629936975242</v>
+        <v>0.6982701078149669</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8212646932228723</v>
+        <v>0.8177007100536582</v>
       </c>
     </row>
     <row r="21">
@@ -7791,19 +7791,19 @@
         <v>41562</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33247</v>
+        <v>34147</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48745</v>
+        <v>49093</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4595713092053288</v>
+        <v>0.4595713092053289</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3676281009479753</v>
+        <v>0.3775810506146496</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5389948060151623</v>
+        <v>0.5428461140454083</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>184</v>
@@ -7812,19 +7812,19 @@
         <v>92429</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82654</v>
+        <v>80789</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102130</v>
+        <v>101831</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4633248668965875</v>
+        <v>0.4633248668965876</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4143287095208635</v>
+        <v>0.4049755420758612</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5119557275104399</v>
+        <v>0.51045526926937</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>250</v>
@@ -7833,19 +7833,19 @@
         <v>133990</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121800</v>
+        <v>120837</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>146395</v>
+        <v>146696</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4621540286874459</v>
+        <v>0.462154028687446</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4201086616083803</v>
+        <v>0.4167864867965033</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5049401814690362</v>
+        <v>0.505978735377931</v>
       </c>
     </row>
     <row r="23">
@@ -7862,19 +7862,19 @@
         <v>48874</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>41691</v>
+        <v>41343</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>57189</v>
+        <v>56289</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.540428690794671</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4610051939848379</v>
+        <v>0.4571538859545918</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6323718990520246</v>
+        <v>0.6224189493853505</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>198</v>
@@ -7883,19 +7883,19 @@
         <v>107061</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>97360</v>
+        <v>97659</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>116836</v>
+        <v>118701</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5366751331034123</v>
+        <v>0.5366751331034124</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4880442724895602</v>
+        <v>0.48954473073063</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5856712904791365</v>
+        <v>0.5950244579241388</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>275</v>
@@ -7904,19 +7904,19 @@
         <v>155936</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>143531</v>
+        <v>143230</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>168126</v>
+        <v>169089</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5378459713125538</v>
+        <v>0.537845971312554</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4950598185309638</v>
+        <v>0.4940212646220691</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5798913383916199</v>
+        <v>0.5832135132034965</v>
       </c>
     </row>
     <row r="24">
@@ -8008,19 +8008,19 @@
         <v>84828</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68768</v>
+        <v>67346</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103029</v>
+        <v>102301</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1512565054684442</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.122620093383172</v>
+        <v>0.1200841395602265</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1837095142697129</v>
+        <v>0.1824120451775419</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>247</v>
@@ -8029,19 +8029,19 @@
         <v>131567</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>115755</v>
+        <v>116038</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>147512</v>
+        <v>148040</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1666067667823012</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1465834285035847</v>
+        <v>0.1469421461275396</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1867976052128873</v>
+        <v>0.1874661648998225</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>357</v>
@@ -8050,19 +8050,19 @@
         <v>216395</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>193883</v>
+        <v>193737</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>240774</v>
+        <v>243289</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1602322958500629</v>
+        <v>0.1602322958500628</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1435625940946736</v>
+        <v>0.1434546527711997</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1782839354945552</v>
+        <v>0.1801460764318168</v>
       </c>
     </row>
     <row r="26">
@@ -8079,19 +8079,19 @@
         <v>475996</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>457795</v>
+        <v>458523</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>492056</v>
+        <v>493478</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.848743494531556</v>
+        <v>0.8487434945315558</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8162904857302874</v>
+        <v>0.8175879548224581</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.877379906616828</v>
+        <v>0.8799158604397735</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>909</v>
@@ -8100,19 +8100,19 @@
         <v>658120</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>642175</v>
+        <v>641647</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>673932</v>
+        <v>673649</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8333932332176986</v>
+        <v>0.8333932332176989</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8132023947871128</v>
+        <v>0.8125338351001774</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8534165714964154</v>
+        <v>0.8530578538724601</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1369</v>
@@ -8121,19 +8121,19 @@
         <v>1134116</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1109737</v>
+        <v>1107222</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1156628</v>
+        <v>1156774</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8397677041499373</v>
+        <v>0.8397677041499371</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8217160645054445</v>
+        <v>0.8198539235681825</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8564374059053262</v>
+        <v>0.8565453472288002</v>
       </c>
     </row>
     <row r="27">
